--- a/flow/app/flow-es.xlsx
+++ b/flow/app/flow-es.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,19 +38,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POSTMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-press</t>
+  </si>
+  <si>
     <t>"properties" : {
-  "quest_id" : { "type" : "string", "index": "no" },
+  "quest_id" : { "type" : "long", "index": "no" },
+  "quest_uuid" : { "type" : "string", "index": "no" },
   "quest_title" : { "type" : "string", "boost": 2.0 },
   "quest_content" : { "type" : "string" },
   "quest_tags" : { "type" : "string", "index": "no" },
   "quest_votes" : { "type" : "integer", "index": "no" },
+  "ext_quest_site" : { "type" : "string", "index": "no" },
   "ext_quest_url" : { "type" : "string", "index": "no" },
-  "quest_accepted" : { "type" : "integer", "index": "no" }
+  "quest_accepted" : { "type" : "integer", "index": "no" },
+  "create_date" : { "type" : "long", "index": "no" }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POSTMAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,14 +69,52 @@
     "mappings": {
         "quest": {
             "properties" : {
-     "quest_id" : { "type" : "string", "index": "no" },
+     "quest_id" : { "type" : "long", "index": "no" },
+     "quest_uuid" : { "type" : "string", "index": "no" },
      "quest_title" : { "type" : "string", "boost": 2.0 },
      "quest_content" : { "type" : "string" },
      "quest_tags" : { "type" : "string", "index": "no" },
      "quest_votes" : { "type" : "integer", "index": "no" },
+     "ext_quest_site" : { "type" : "string", "index": "no" },
      "ext_quest_url" : { "type" : "string", "index": "no" },
-     "quest_accepted" : { "type" : "integer", "index": "no" }
+     "quest_accepted" : { "type" : "integer", "index": "no" },
+     "create_date" : { "type" : "long", "index": "no" }
    }
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"properties" : {
+  "article_id" : { "type" : "long", "index": "no" },
+  "article_uuid" : { "type" : "string", "index": "no" },
+  "article_site" : { "type" : "string", "index": "not_analyzed" },
+  "article_url" : { "type" : "string", "index": "no" },
+  "article_title" : { "type" : "string", "boost": 3.0 },
+  "article_summary" : { "type" : "string", "boost": 2.0 },
+  "article_content" : { "type" : "string" },
+  "article_tags" : { "type" : "string", "boost": 8.0 },
+  "create_date" : { "type" : "long", "index": "no" }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT http://192.168.1.250:9200/flow-press/
+{
+    "mappings": {
+        "article": {
+            "properties" : {
+  "article_id" : { "type" : "long", "index": "no" },
+  "article_uuid" : { "type" : "string", "index": "no" },
+  "article_site" : { "type" : "string", "index": "not_analyzed" },
+  "article_url" : { "type" : "string", "index": "no" },
+  "article_title" : { "type" : "string", "boost": 3.0 },
+  "article_summary" : { "type" : "string", "boost": 2.0 },
+  "article_content" : { "type" : "string" },
+  "article_tags" : { "type" : "string", "boost": 8.0 },
+  "create_date" : { "type" : "long", "index": "no" }
+}
         }
     }
 }</t>
@@ -189,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +261,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -525,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -534,7 +594,7 @@
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="88.5" customWidth="1"/>
-    <col min="4" max="4" width="73.375" customWidth="1"/>
+    <col min="4" max="4" width="73.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="32.1" customHeight="1">
@@ -548,58 +608,66 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="260.25" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="254.25" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="221.25" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
